--- a/05_基金及海外期貨/02_工作與需求項目/10_ASD自行測試報告/01_105122911301需求清單_1060213.xlsx
+++ b/05_基金及海外期貨/02_工作與需求項目/10_ASD自行測試報告/01_105122911301需求清單_1060213.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="13710" windowHeight="11775" activeTab="1"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="13710" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="工作項目" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,19 @@
     <definedName name="Z_CA260C9E_B16F_4393_AE30_9944F48F1D4B_.wvu.Cols" localSheetId="0" hidden="1">工作項目!$E:$E</definedName>
     <definedName name="Z_E16C26D2_591E_4B0F_9764_62C75ED82DFA_.wvu.Cols" localSheetId="0" hidden="1">工作項目!$E:$F</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210" fullCalcOnLoad="1"/>
   <customWorkbookViews>
+    <customWorkbookView name="黃志軒 - 個人檢視畫面" guid="{E7053904-C56E-4165-BD98-522EEE7D5541}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="840" activeSheetId="1"/>
+    <customWorkbookView name="hedywang - 個人檢視畫面" guid="{CA260C9E-B16F-4393-AE30-9944F48F1D4B}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="996" activeSheetId="1"/>
+    <customWorkbookView name="yenling_chien - 個人檢視畫面" guid="{0F1B3E5F-40B2-4D64-A272-1D769106D941}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="吳岳樺 - 個人檢視畫面" guid="{E16C26D2-591E-4B0F-9764-62C75ED82DFA}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="841" activeSheetId="1"/>
     <customWorkbookView name="復華投信 - 個人檢視畫面" guid="{3FC398EA-3BF4-49DA-B088-40D4AEA9ABB6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="893" activeSheetId="1"/>
-    <customWorkbookView name="吳岳樺 - 個人檢視畫面" guid="{E16C26D2-591E-4B0F-9764-62C75ED82DFA}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="841" activeSheetId="1"/>
-    <customWorkbookView name="yenling_chien - 個人檢視畫面" guid="{0F1B3E5F-40B2-4D64-A272-1D769106D941}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="hedywang - 個人檢視畫面" guid="{CA260C9E-B16F-4393-AE30-9944F48F1D4B}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="996" activeSheetId="1"/>
-    <customWorkbookView name="黃志軒 - 個人檢視畫面" guid="{E7053904-C56E-4165-BD98-522EEE7D5541}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="840" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="477">
   <si>
     <t>Vicky:此階段相關規則可參考次功能表欄位，舊有規則3項、新增12項規則。FH僅配合投資中及投資後檢核，投資前檢核由Vicky協助修改，可參考第12項及第107項分工。</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2292,7 +2292,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -2312,7 +2312,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -2343,7 +2343,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -2359,7 +2359,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -2376,7 +2376,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -2387,7 +2387,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFC00000"/>
+        <color indexed="60"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -2464,7 +2464,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -2784,7 +2784,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
+        <color indexed="36"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -2813,7 +2813,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
+        <color indexed="36"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -2843,7 +2843,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
+        <color indexed="36"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -2860,7 +2860,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
+        <color indexed="36"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -2877,7 +2877,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
+        <color indexed="36"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -2894,7 +2894,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
+        <color indexed="36"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
@@ -2934,6 +2934,14 @@
   </si>
   <si>
     <t>ASD 測試-Y/N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出現系統錯誤訊息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.啟動OK</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3159,6 +3167,48 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="30"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="36"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -3174,51 +3224,8 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3285,25 +3292,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3389,17 +3384,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -3407,6 +3391,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3430,509 +3425,509 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -3941,17 +3936,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4441,20 +4436,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4468,37 +4451,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4513,25 +4496,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4540,28 +4523,64 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4570,41 +4589,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="176">
@@ -4787,16 +4776,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5083,11 +5067,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AK117"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="R99" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1:V1"/>
+      <selection pane="bottomRight" activeCell="C75" sqref="C75:E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5108,7 +5092,11 @@
     <col min="15" max="15" width="12.25" style="107" customWidth="1"/>
     <col min="16" max="16" width="11.375" style="34" customWidth="1"/>
     <col min="17" max="17" width="11.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="18" max="36" width="9" style="34"/>
+    <col min="18" max="19" width="9" style="34"/>
+    <col min="20" max="20" width="10.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.625" style="34" customWidth="1"/>
+    <col min="23" max="36" width="9" style="34"/>
     <col min="37" max="37" width="22.5" style="77" customWidth="1"/>
     <col min="38" max="16384" width="9" style="34"/>
   </cols>
@@ -5162,22 +5150,22 @@
       <c r="P1" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="R1" s="213"/>
-      <c r="S1" s="213"/>
-      <c r="T1" s="214" t="s">
+      <c r="R1" s="203"/>
+      <c r="S1" s="203"/>
+      <c r="T1" s="208" t="s">
         <v>474</v>
       </c>
-      <c r="U1" s="214" t="s">
+      <c r="U1" s="208" t="s">
         <v>472</v>
       </c>
-      <c r="V1" s="214" t="s">
+      <c r="V1" s="208" t="s">
         <v>473</v>
       </c>
       <c r="AK1" s="24" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="60">
+    <row r="2" spans="1:37" ht="60" hidden="1">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -5216,7 +5204,7 @@
       <c r="P2" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="Q2" s="208" t="s">
+      <c r="Q2" s="198" t="s">
         <v>300</v>
       </c>
       <c r="R2" s="33"/>
@@ -5228,7 +5216,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="60">
+    <row r="3" spans="1:37" ht="60" hidden="1">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -5267,7 +5255,7 @@
       <c r="P3" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="Q3" s="208" t="s">
+      <c r="Q3" s="198" t="s">
         <v>300</v>
       </c>
       <c r="R3" s="33"/>
@@ -5279,7 +5267,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="30">
+    <row r="4" spans="1:37" ht="30" hidden="1">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -5318,7 +5306,7 @@
       <c r="P4" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="Q4" s="208" t="s">
+      <c r="Q4" s="198" t="s">
         <v>300</v>
       </c>
       <c r="R4" s="33"/>
@@ -5330,7 +5318,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" hidden="1">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -5376,7 +5364,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" hidden="1">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -5422,7 +5410,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" hidden="1">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -5466,7 +5454,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" hidden="1">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -5510,7 +5498,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" hidden="1">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -5558,7 +5546,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" hidden="1">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -5606,7 +5594,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" hidden="1">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -5654,7 +5642,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="45">
+    <row r="12" spans="1:37" ht="45" hidden="1">
       <c r="A12" s="25">
         <v>11</v>
       </c>
@@ -5699,7 +5687,7 @@
       <c r="U12" s="33"/>
       <c r="V12" s="33"/>
     </row>
-    <row r="13" spans="1:37" ht="150">
+    <row r="13" spans="1:37" ht="150" hidden="1">
       <c r="A13" s="25">
         <v>12</v>
       </c>
@@ -5744,7 +5732,7 @@
       <c r="U13" s="33"/>
       <c r="V13" s="33"/>
     </row>
-    <row r="14" spans="1:37" ht="30">
+    <row r="14" spans="1:37" ht="30" hidden="1">
       <c r="A14" s="134">
         <v>13</v>
       </c>
@@ -5789,7 +5777,7 @@
       <c r="U14" s="33"/>
       <c r="V14" s="33"/>
     </row>
-    <row r="15" spans="1:37" ht="60">
+    <row r="15" spans="1:37" ht="60" hidden="1">
       <c r="A15" s="25">
         <v>14</v>
       </c>
@@ -5832,7 +5820,7 @@
       <c r="U15" s="33"/>
       <c r="V15" s="33"/>
     </row>
-    <row r="16" spans="1:37" ht="60">
+    <row r="16" spans="1:37" ht="60" hidden="1">
       <c r="A16" s="25">
         <v>15</v>
       </c>
@@ -5877,7 +5865,7 @@
       <c r="U16" s="33"/>
       <c r="V16" s="33"/>
     </row>
-    <row r="17" spans="1:37" ht="30">
+    <row r="17" spans="1:37" ht="30" hidden="1">
       <c r="A17" s="25">
         <v>16</v>
       </c>
@@ -5922,7 +5910,7 @@
       <c r="U17" s="33"/>
       <c r="V17" s="33"/>
     </row>
-    <row r="18" spans="1:37" s="85" customFormat="1" ht="330" hidden="1">
+    <row r="18" spans="1:37" s="85" customFormat="1" ht="330">
       <c r="A18" s="28">
         <v>17</v>
       </c>
@@ -5968,7 +5956,7 @@
       <c r="V18" s="35"/>
       <c r="AK18" s="86"/>
     </row>
-    <row r="19" spans="1:37" ht="30" hidden="1">
+    <row r="19" spans="1:37" ht="30">
       <c r="A19" s="25">
         <v>18</v>
       </c>
@@ -6011,9 +5999,11 @@
       <c r="S19" s="33"/>
       <c r="T19" s="33"/>
       <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-    </row>
-    <row r="20" spans="1:37" ht="45">
+      <c r="V19" s="209" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="45" hidden="1">
       <c r="A20" s="25">
         <v>19</v>
       </c>
@@ -6165,7 +6155,7 @@
       <c r="U23" s="33"/>
       <c r="V23" s="33"/>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" hidden="1">
       <c r="A24" s="25">
         <v>23</v>
       </c>
@@ -6178,7 +6168,7 @@
       <c r="D24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="202" t="s">
+      <c r="E24" s="210" t="s">
         <v>80</v>
       </c>
       <c r="F24" s="41">
@@ -6210,7 +6200,7 @@
       <c r="U24" s="33"/>
       <c r="V24" s="33"/>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" hidden="1">
       <c r="A25" s="25">
         <v>24</v>
       </c>
@@ -6223,7 +6213,7 @@
       <c r="D25" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="203"/>
+      <c r="E25" s="211"/>
       <c r="F25" s="41">
         <v>1</v>
       </c>
@@ -6251,7 +6241,7 @@
       <c r="U25" s="33"/>
       <c r="V25" s="33"/>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" hidden="1">
       <c r="A26" s="25">
         <v>25</v>
       </c>
@@ -6264,7 +6254,7 @@
       <c r="D26" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="204"/>
+      <c r="E26" s="212"/>
       <c r="F26" s="41">
         <v>1</v>
       </c>
@@ -6292,7 +6282,7 @@
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" hidden="1">
       <c r="A27" s="25">
         <v>26</v>
       </c>
@@ -6335,7 +6325,7 @@
       <c r="U27" s="33"/>
       <c r="V27" s="33"/>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" hidden="1">
       <c r="A28" s="25">
         <v>27</v>
       </c>
@@ -6378,7 +6368,7 @@
       <c r="U28" s="33"/>
       <c r="V28" s="33"/>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" hidden="1">
       <c r="A29" s="25">
         <v>28</v>
       </c>
@@ -6456,7 +6446,7 @@
       <c r="U30" s="33"/>
       <c r="V30" s="33"/>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" hidden="1">
       <c r="A31" s="25">
         <v>30</v>
       </c>
@@ -6499,7 +6489,7 @@
       <c r="U31" s="33"/>
       <c r="V31" s="33"/>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" hidden="1">
       <c r="A32" s="25">
         <v>31</v>
       </c>
@@ -6540,7 +6530,7 @@
       <c r="U32" s="33"/>
       <c r="V32" s="33"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" hidden="1">
       <c r="A33" s="25">
         <v>32</v>
       </c>
@@ -6581,7 +6571,7 @@
       <c r="U33" s="33"/>
       <c r="V33" s="33"/>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" hidden="1">
       <c r="A34" s="28">
         <v>33</v>
       </c>
@@ -6694,7 +6684,7 @@
       <c r="U36" s="33"/>
       <c r="V36" s="33"/>
     </row>
-    <row r="37" spans="1:22" ht="60">
+    <row r="37" spans="1:22" ht="60" hidden="1">
       <c r="A37" s="25">
         <v>36</v>
       </c>
@@ -6739,7 +6729,7 @@
       <c r="U37" s="33"/>
       <c r="V37" s="33"/>
     </row>
-    <row r="38" spans="1:22" ht="90" hidden="1">
+    <row r="38" spans="1:22" ht="90">
       <c r="A38" s="25">
         <v>37</v>
       </c>
@@ -6782,9 +6772,11 @@
       <c r="S38" s="33"/>
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-    </row>
-    <row r="39" spans="1:22" ht="105" hidden="1">
+      <c r="V38" s="209" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="105">
       <c r="A39" s="25">
         <v>38</v>
       </c>
@@ -6825,9 +6817,11 @@
       <c r="S39" s="33"/>
       <c r="T39" s="33"/>
       <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-    </row>
-    <row r="40" spans="1:22" ht="30" hidden="1">
+      <c r="V39" s="209" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="30">
       <c r="A40" s="25">
         <v>39</v>
       </c>
@@ -6866,7 +6860,9 @@
       <c r="S40" s="33"/>
       <c r="T40" s="33"/>
       <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
+      <c r="V40" s="209" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="41" spans="1:22" ht="45" hidden="1">
       <c r="A41" s="25">
@@ -6917,7 +6913,7 @@
         <v>126</v>
       </c>
       <c r="E42" s="37"/>
-      <c r="F42" s="190">
+      <c r="F42" s="186">
         <v>1</v>
       </c>
       <c r="G42" s="33" t="s">
@@ -6958,7 +6954,7 @@
         <v>126</v>
       </c>
       <c r="E43" s="37"/>
-      <c r="F43" s="190">
+      <c r="F43" s="186">
         <v>1</v>
       </c>
       <c r="G43" s="33" t="s">
@@ -6999,7 +6995,7 @@
         <v>427</v>
       </c>
       <c r="E44" s="37"/>
-      <c r="F44" s="190">
+      <c r="F44" s="186">
         <v>1</v>
       </c>
       <c r="G44" s="33" t="s">
@@ -7040,7 +7036,7 @@
         <v>130</v>
       </c>
       <c r="E45" s="37"/>
-      <c r="F45" s="184">
+      <c r="F45" s="180">
         <v>1</v>
       </c>
       <c r="G45" s="33" t="s">
@@ -7081,7 +7077,7 @@
       </c>
       <c r="D46" s="33"/>
       <c r="E46" s="37"/>
-      <c r="F46" s="184">
+      <c r="F46" s="180">
         <v>1</v>
       </c>
       <c r="G46" s="33" t="s">
@@ -7133,7 +7129,7 @@
       <c r="L47" s="33"/>
       <c r="M47" s="100"/>
       <c r="N47" s="33"/>
-      <c r="O47" s="189" t="s">
+      <c r="O47" s="185" t="s">
         <v>430</v>
       </c>
       <c r="P47" s="33" t="s">
@@ -7170,7 +7166,7 @@
       <c r="L48" s="33"/>
       <c r="M48" s="100"/>
       <c r="N48" s="33"/>
-      <c r="O48" s="189" t="s">
+      <c r="O48" s="185" t="s">
         <v>430</v>
       </c>
       <c r="P48" s="33" t="s">
@@ -7207,7 +7203,7 @@
       <c r="L49" s="33"/>
       <c r="M49" s="100"/>
       <c r="N49" s="33"/>
-      <c r="O49" s="189" t="s">
+      <c r="O49" s="185" t="s">
         <v>430</v>
       </c>
       <c r="P49" s="33" t="s">
@@ -7244,7 +7240,7 @@
       <c r="L50" s="33"/>
       <c r="M50" s="100"/>
       <c r="N50" s="33"/>
-      <c r="O50" s="189" t="s">
+      <c r="O50" s="185" t="s">
         <v>430</v>
       </c>
       <c r="P50" s="33" t="s">
@@ -7281,7 +7277,7 @@
       <c r="L51" s="33"/>
       <c r="M51" s="100"/>
       <c r="N51" s="33"/>
-      <c r="O51" s="189" t="s">
+      <c r="O51" s="185" t="s">
         <v>430</v>
       </c>
       <c r="P51" s="33" t="s">
@@ -7318,7 +7314,7 @@
       <c r="L52" s="33"/>
       <c r="M52" s="100"/>
       <c r="N52" s="33"/>
-      <c r="O52" s="189" t="s">
+      <c r="O52" s="185" t="s">
         <v>430</v>
       </c>
       <c r="P52" s="33" t="s">
@@ -7355,7 +7351,7 @@
       <c r="L53" s="33"/>
       <c r="M53" s="100"/>
       <c r="N53" s="33"/>
-      <c r="O53" s="189" t="s">
+      <c r="O53" s="185" t="s">
         <v>430</v>
       </c>
       <c r="P53" s="33" t="s">
@@ -7392,7 +7388,7 @@
       <c r="L54" s="33"/>
       <c r="M54" s="100"/>
       <c r="N54" s="33"/>
-      <c r="O54" s="189" t="s">
+      <c r="O54" s="185" t="s">
         <v>430</v>
       </c>
       <c r="P54" s="33" t="s">
@@ -7429,7 +7425,7 @@
         <v>274</v>
       </c>
       <c r="N55" s="33"/>
-      <c r="O55" s="189" t="s">
+      <c r="O55" s="185" t="s">
         <v>430</v>
       </c>
       <c r="P55" s="33" t="s">
@@ -7466,7 +7462,7 @@
         <v>274</v>
       </c>
       <c r="N56" s="33"/>
-      <c r="O56" s="189" t="s">
+      <c r="O56" s="185" t="s">
         <v>430</v>
       </c>
       <c r="P56" s="33" t="s">
@@ -7478,7 +7474,7 @@
       <c r="U56" s="33"/>
       <c r="V56" s="33"/>
     </row>
-    <row r="57" spans="1:22" ht="60" hidden="1">
+    <row r="57" spans="1:22" ht="60">
       <c r="A57" s="25">
         <v>56</v>
       </c>
@@ -7492,7 +7488,7 @@
         <v>143</v>
       </c>
       <c r="E57" s="37"/>
-      <c r="F57" s="184">
+      <c r="F57" s="180">
         <v>1</v>
       </c>
       <c r="G57" s="33" t="s">
@@ -7521,7 +7517,9 @@
       <c r="S57" s="33"/>
       <c r="T57" s="33"/>
       <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
+      <c r="V57" s="33" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="58" spans="1:22" ht="135" hidden="1">
       <c r="A58" s="25">
@@ -7537,7 +7535,7 @@
         <v>184</v>
       </c>
       <c r="E58" s="37"/>
-      <c r="F58" s="184">
+      <c r="F58" s="180">
         <v>0.48</v>
       </c>
       <c r="G58" s="91" t="s">
@@ -7560,7 +7558,7 @@
       <c r="P58" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="Q58" s="208" t="s">
+      <c r="Q58" s="198" t="s">
         <v>281</v>
       </c>
       <c r="R58" s="33" t="s">
@@ -7632,7 +7630,7 @@
       </c>
       <c r="D60" s="33"/>
       <c r="E60" s="37"/>
-      <c r="F60" s="184">
+      <c r="F60" s="180">
         <v>1</v>
       </c>
       <c r="G60" s="33" t="s">
@@ -7667,7 +7665,7 @@
       <c r="U60" s="33"/>
       <c r="V60" s="33"/>
     </row>
-    <row r="61" spans="1:22" ht="32.25" customHeight="1">
+    <row r="61" spans="1:22" ht="32.25" hidden="1" customHeight="1">
       <c r="A61" s="25">
         <v>60</v>
       </c>
@@ -7679,7 +7677,7 @@
       </c>
       <c r="D61" s="33"/>
       <c r="E61" s="37"/>
-      <c r="F61" s="184">
+      <c r="F61" s="180">
         <v>1</v>
       </c>
       <c r="G61" s="33" t="s">
@@ -7708,7 +7706,7 @@
       <c r="P61" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="Q61" s="208" t="s">
+      <c r="Q61" s="198" t="s">
         <v>314</v>
       </c>
       <c r="R61" s="33"/>
@@ -7731,7 +7729,7 @@
         <v>150</v>
       </c>
       <c r="E62" s="37"/>
-      <c r="F62" s="190">
+      <c r="F62" s="186">
         <v>0.6</v>
       </c>
       <c r="G62" s="33" t="s">
@@ -7780,7 +7778,7 @@
         <v>152</v>
       </c>
       <c r="E63" s="37"/>
-      <c r="F63" s="184">
+      <c r="F63" s="180">
         <v>1</v>
       </c>
       <c r="G63" s="33" t="s">
@@ -7807,7 +7805,7 @@
       <c r="U63" s="33"/>
       <c r="V63" s="33"/>
     </row>
-    <row r="64" spans="1:22" ht="30" hidden="1">
+    <row r="64" spans="1:22" ht="30">
       <c r="A64" s="25">
         <v>63</v>
       </c>
@@ -7819,7 +7817,7 @@
       </c>
       <c r="D64" s="33"/>
       <c r="E64" s="37"/>
-      <c r="F64" s="184">
+      <c r="F64" s="180">
         <v>1</v>
       </c>
       <c r="G64" s="33" t="s">
@@ -7850,7 +7848,7 @@
       <c r="U64" s="33"/>
       <c r="V64" s="33"/>
     </row>
-    <row r="65" spans="1:22" hidden="1">
+    <row r="65" spans="1:22">
       <c r="A65" s="25">
         <v>64</v>
       </c>
@@ -7862,7 +7860,7 @@
       </c>
       <c r="D65" s="33"/>
       <c r="E65" s="37"/>
-      <c r="F65" s="190">
+      <c r="F65" s="186">
         <v>1</v>
       </c>
       <c r="G65" s="33" t="s">
@@ -7889,7 +7887,7 @@
       <c r="U65" s="33"/>
       <c r="V65" s="33"/>
     </row>
-    <row r="66" spans="1:22" ht="150" hidden="1">
+    <row r="66" spans="1:22" ht="150">
       <c r="A66" s="25">
         <v>65</v>
       </c>
@@ -7903,7 +7901,7 @@
         <v>425</v>
       </c>
       <c r="E66" s="37"/>
-      <c r="F66" s="184">
+      <c r="F66" s="180">
         <v>1</v>
       </c>
       <c r="G66" s="33" t="s">
@@ -7932,7 +7930,7 @@
       <c r="U66" s="33"/>
       <c r="V66" s="33"/>
     </row>
-    <row r="67" spans="1:22" ht="165" hidden="1">
+    <row r="67" spans="1:22" ht="165">
       <c r="A67" s="25">
         <v>66</v>
       </c>
@@ -7946,7 +7944,7 @@
         <v>93</v>
       </c>
       <c r="E67" s="37"/>
-      <c r="F67" s="184">
+      <c r="F67" s="180">
         <v>1</v>
       </c>
       <c r="G67" s="33" t="s">
@@ -7960,7 +7958,7 @@
       <c r="M67" s="101" t="s">
         <v>254</v>
       </c>
-      <c r="N67" s="187" t="s">
+      <c r="N67" s="183" t="s">
         <v>428</v>
       </c>
       <c r="O67" s="104" t="s">
@@ -7975,7 +7973,7 @@
       <c r="U67" s="33"/>
       <c r="V67" s="33"/>
     </row>
-    <row r="68" spans="1:22" ht="135" hidden="1">
+    <row r="68" spans="1:22" ht="135">
       <c r="A68" s="25">
         <v>67</v>
       </c>
@@ -7989,7 +7987,7 @@
         <v>257</v>
       </c>
       <c r="E68" s="37"/>
-      <c r="F68" s="184">
+      <c r="F68" s="180">
         <v>1</v>
       </c>
       <c r="G68" s="91" t="s">
@@ -8018,7 +8016,7 @@
       <c r="U68" s="33"/>
       <c r="V68" s="33"/>
     </row>
-    <row r="69" spans="1:22" ht="165" hidden="1">
+    <row r="69" spans="1:22" ht="165">
       <c r="A69" s="25">
         <v>68</v>
       </c>
@@ -8032,7 +8030,7 @@
         <v>258</v>
       </c>
       <c r="E69" s="37"/>
-      <c r="F69" s="184">
+      <c r="F69" s="180">
         <v>1</v>
       </c>
       <c r="G69" s="33" t="s">
@@ -8063,7 +8061,7 @@
       <c r="U69" s="33"/>
       <c r="V69" s="33"/>
     </row>
-    <row r="70" spans="1:22" ht="60" hidden="1">
+    <row r="70" spans="1:22" ht="60">
       <c r="A70" s="25">
         <v>69</v>
       </c>
@@ -8077,7 +8075,7 @@
         <v>263</v>
       </c>
       <c r="E70" s="37"/>
-      <c r="F70" s="184">
+      <c r="F70" s="180">
         <v>1</v>
       </c>
       <c r="G70" s="33" t="s">
@@ -8108,7 +8106,7 @@
       <c r="U70" s="33"/>
       <c r="V70" s="33"/>
     </row>
-    <row r="71" spans="1:22" ht="60" hidden="1">
+    <row r="71" spans="1:22" ht="60">
       <c r="A71" s="25">
         <v>70</v>
       </c>
@@ -8122,7 +8120,7 @@
         <v>157</v>
       </c>
       <c r="E71" s="37"/>
-      <c r="F71" s="184">
+      <c r="F71" s="180">
         <v>1</v>
       </c>
       <c r="G71" s="33" t="s">
@@ -8151,7 +8149,7 @@
       <c r="U71" s="33"/>
       <c r="V71" s="33"/>
     </row>
-    <row r="72" spans="1:22" ht="45" hidden="1">
+    <row r="72" spans="1:22" ht="45">
       <c r="A72" s="25">
         <v>71</v>
       </c>
@@ -8165,7 +8163,7 @@
         <v>87</v>
       </c>
       <c r="E72" s="37"/>
-      <c r="F72" s="184">
+      <c r="F72" s="180">
         <v>1</v>
       </c>
       <c r="G72" s="33" t="s">
@@ -8198,7 +8196,7 @@
       <c r="U72" s="33"/>
       <c r="V72" s="33"/>
     </row>
-    <row r="73" spans="1:22" ht="45" hidden="1">
+    <row r="73" spans="1:22" ht="45">
       <c r="A73" s="25">
         <v>72</v>
       </c>
@@ -8212,7 +8210,7 @@
         <v>87</v>
       </c>
       <c r="E73" s="37"/>
-      <c r="F73" s="184">
+      <c r="F73" s="180">
         <v>1</v>
       </c>
       <c r="G73" s="33" t="s">
@@ -8259,7 +8257,7 @@
         <v>162</v>
       </c>
       <c r="E74" s="37"/>
-      <c r="F74" s="190">
+      <c r="F74" s="186">
         <v>1</v>
       </c>
       <c r="G74" s="33" t="s">
@@ -8286,7 +8284,7 @@
       <c r="U74" s="33"/>
       <c r="V74" s="33"/>
     </row>
-    <row r="75" spans="1:22" ht="345" hidden="1">
+    <row r="75" spans="1:22" ht="345">
       <c r="A75" s="25">
         <v>74</v>
       </c>
@@ -8300,7 +8298,7 @@
         <v>112</v>
       </c>
       <c r="E75" s="37"/>
-      <c r="F75" s="184">
+      <c r="F75" s="180">
         <v>1</v>
       </c>
       <c r="G75" s="33" t="s">
@@ -8323,7 +8321,7 @@
       <c r="P75" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="Q75" s="208" t="s">
+      <c r="Q75" s="198" t="s">
         <v>277</v>
       </c>
       <c r="R75" s="33" t="s">
@@ -8336,7 +8334,7 @@
       <c r="U75" s="33"/>
       <c r="V75" s="33"/>
     </row>
-    <row r="76" spans="1:22" ht="45" hidden="1">
+    <row r="76" spans="1:22" ht="45">
       <c r="A76" s="25">
         <v>75</v>
       </c>
@@ -8348,7 +8346,7 @@
       </c>
       <c r="D76" s="33"/>
       <c r="E76" s="37"/>
-      <c r="F76" s="184">
+      <c r="F76" s="180">
         <v>1</v>
       </c>
       <c r="G76" s="33" t="s">
@@ -8369,7 +8367,7 @@
       <c r="P76" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="Q76" s="208" t="s">
+      <c r="Q76" s="198" t="s">
         <v>277</v>
       </c>
       <c r="R76" s="33" t="s">
@@ -8392,7 +8390,7 @@
       </c>
       <c r="D77" s="33"/>
       <c r="E77" s="37"/>
-      <c r="F77" s="184">
+      <c r="F77" s="180">
         <v>1</v>
       </c>
       <c r="G77" s="33" t="s">
@@ -8431,7 +8429,7 @@
       </c>
       <c r="D78" s="33"/>
       <c r="E78" s="37"/>
-      <c r="F78" s="184">
+      <c r="F78" s="180">
         <v>1</v>
       </c>
       <c r="G78" s="91" t="s">
@@ -8460,7 +8458,7 @@
       <c r="U78" s="33"/>
       <c r="V78" s="33"/>
     </row>
-    <row r="79" spans="1:22" ht="30">
+    <row r="79" spans="1:22" ht="30" hidden="1">
       <c r="A79" s="25">
         <v>78</v>
       </c>
@@ -8472,7 +8470,7 @@
       </c>
       <c r="D79" s="33"/>
       <c r="E79" s="37"/>
-      <c r="F79" s="184">
+      <c r="F79" s="180">
         <v>1</v>
       </c>
       <c r="G79" s="33" t="s">
@@ -8493,7 +8491,7 @@
       <c r="P79" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="Q79" s="208" t="s">
+      <c r="Q79" s="198" t="s">
         <v>306</v>
       </c>
       <c r="R79" s="33"/>
@@ -8502,7 +8500,7 @@
       <c r="U79" s="33"/>
       <c r="V79" s="33"/>
     </row>
-    <row r="80" spans="1:22" ht="30">
+    <row r="80" spans="1:22" ht="30" hidden="1">
       <c r="A80" s="25">
         <v>79</v>
       </c>
@@ -8514,7 +8512,7 @@
       </c>
       <c r="D80" s="33"/>
       <c r="E80" s="37"/>
-      <c r="F80" s="184">
+      <c r="F80" s="180">
         <v>1</v>
       </c>
       <c r="G80" s="33" t="s">
@@ -8541,22 +8539,22 @@
       <c r="U80" s="33"/>
       <c r="V80" s="33"/>
     </row>
-    <row r="81" spans="1:22" ht="60">
+    <row r="81" spans="1:22" ht="60" hidden="1">
       <c r="A81" s="25">
         <v>80</v>
       </c>
       <c r="B81" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="C81" s="195" t="s">
+      <c r="C81" s="191" t="s">
         <v>471</v>
       </c>
       <c r="D81" s="33"/>
       <c r="E81" s="37"/>
-      <c r="F81" s="191">
+      <c r="F81" s="187">
         <v>0</v>
       </c>
-      <c r="G81" s="201" t="s">
+      <c r="G81" s="197" t="s">
         <v>470</v>
       </c>
       <c r="H81" s="33"/>
@@ -8594,7 +8592,7 @@
       </c>
       <c r="D82" s="33"/>
       <c r="E82" s="37"/>
-      <c r="F82" s="184">
+      <c r="F82" s="180">
         <v>1</v>
       </c>
       <c r="G82" s="33" t="s">
@@ -8630,12 +8628,12 @@
       <c r="B83" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="185" t="s">
+      <c r="C83" s="181" t="s">
         <v>421</v>
       </c>
       <c r="D83" s="33"/>
       <c r="E83" s="37"/>
-      <c r="F83" s="190">
+      <c r="F83" s="186">
         <v>1</v>
       </c>
       <c r="G83" s="33" t="s">
@@ -8664,7 +8662,7 @@
       <c r="U83" s="33"/>
       <c r="V83" s="33"/>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" hidden="1">
       <c r="A84" s="25">
         <v>83</v>
       </c>
@@ -8676,7 +8674,7 @@
       </c>
       <c r="D84" s="33"/>
       <c r="E84" s="37"/>
-      <c r="F84" s="184">
+      <c r="F84" s="180">
         <v>1</v>
       </c>
       <c r="G84" s="33" t="s">
@@ -8703,7 +8701,7 @@
       <c r="U84" s="33"/>
       <c r="V84" s="33"/>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" hidden="1">
       <c r="A85" s="25">
         <v>84</v>
       </c>
@@ -8715,7 +8713,7 @@
       </c>
       <c r="D85" s="33"/>
       <c r="E85" s="37"/>
-      <c r="F85" s="191">
+      <c r="F85" s="187">
         <v>1</v>
       </c>
       <c r="G85" s="33" t="s">
@@ -8756,7 +8754,7 @@
         <v>188</v>
       </c>
       <c r="E86" s="37"/>
-      <c r="F86" s="184">
+      <c r="F86" s="180">
         <v>1</v>
       </c>
       <c r="G86" s="33" t="s">
@@ -8793,11 +8791,11 @@
       <c r="C87" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="D87" s="186" t="s">
+      <c r="D87" s="182" t="s">
         <v>424</v>
       </c>
       <c r="E87" s="68"/>
-      <c r="F87" s="184">
+      <c r="F87" s="180">
         <v>1</v>
       </c>
       <c r="G87" s="67" t="s">
@@ -8838,7 +8836,7 @@
       </c>
       <c r="D88" s="33"/>
       <c r="E88" s="37"/>
-      <c r="F88" s="184">
+      <c r="F88" s="180">
         <v>1</v>
       </c>
       <c r="G88" s="33" t="s">
@@ -8859,7 +8857,7 @@
         <v>274</v>
       </c>
       <c r="N88" s="33"/>
-      <c r="O88" s="189" t="s">
+      <c r="O88" s="185" t="s">
         <v>354</v>
       </c>
       <c r="P88" s="33" t="s">
@@ -8883,7 +8881,7 @@
       </c>
       <c r="D89" s="33"/>
       <c r="E89" s="37"/>
-      <c r="F89" s="184">
+      <c r="F89" s="180">
         <v>1</v>
       </c>
       <c r="G89" s="33" t="s">
@@ -8904,7 +8902,7 @@
         <v>274</v>
       </c>
       <c r="N89" s="33"/>
-      <c r="O89" s="189" t="s">
+      <c r="O89" s="185" t="s">
         <v>354</v>
       </c>
       <c r="P89" s="33" t="s">
@@ -8916,7 +8914,7 @@
       <c r="U89" s="33"/>
       <c r="V89" s="33"/>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" hidden="1">
       <c r="A90" s="25">
         <v>89</v>
       </c>
@@ -8928,7 +8926,7 @@
       </c>
       <c r="D90" s="33"/>
       <c r="E90" s="37"/>
-      <c r="F90" s="184">
+      <c r="F90" s="180">
         <v>1</v>
       </c>
       <c r="G90" s="33" t="s">
@@ -8967,7 +8965,7 @@
       </c>
       <c r="D91" s="33"/>
       <c r="E91" s="37"/>
-      <c r="F91" s="184">
+      <c r="F91" s="180">
         <v>1</v>
       </c>
       <c r="G91" s="91" t="s">
@@ -8982,7 +8980,7 @@
         <v>275</v>
       </c>
       <c r="N91" s="33"/>
-      <c r="O91" s="189" t="s">
+      <c r="O91" s="185" t="s">
         <v>354</v>
       </c>
       <c r="P91" s="33" t="s">
@@ -9031,7 +9029,7 @@
       <c r="U92" s="33"/>
       <c r="V92" s="33"/>
     </row>
-    <row r="93" spans="1:22" ht="75">
+    <row r="93" spans="1:22" ht="75" hidden="1">
       <c r="A93" s="25">
         <v>92</v>
       </c>
@@ -9045,7 +9043,7 @@
         <v>114</v>
       </c>
       <c r="E93" s="37"/>
-      <c r="F93" s="184">
+      <c r="F93" s="180">
         <v>0.1</v>
       </c>
       <c r="G93" s="91" t="s">
@@ -9068,7 +9066,7 @@
       <c r="P93" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="Q93" s="208" t="s">
+      <c r="Q93" s="198" t="s">
         <v>300</v>
       </c>
       <c r="R93" s="33"/>
@@ -9077,21 +9075,21 @@
       <c r="U93" s="33"/>
       <c r="V93" s="33"/>
     </row>
-    <row r="94" spans="1:22" ht="30">
+    <row r="94" spans="1:22" ht="30" hidden="1">
       <c r="A94" s="25">
         <v>93</v>
       </c>
       <c r="B94" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="C94" s="185" t="s">
+      <c r="C94" s="181" t="s">
         <v>457</v>
       </c>
       <c r="D94" s="33" t="s">
         <v>190</v>
       </c>
       <c r="E94" s="37"/>
-      <c r="F94" s="190">
+      <c r="F94" s="186">
         <v>0.3</v>
       </c>
       <c r="G94" s="33" t="s">
@@ -9118,7 +9116,7 @@
       <c r="U94" s="33"/>
       <c r="V94" s="33"/>
     </row>
-    <row r="95" spans="1:22" ht="30">
+    <row r="95" spans="1:22" ht="30" hidden="1">
       <c r="A95" s="25">
         <v>94</v>
       </c>
@@ -9132,7 +9130,7 @@
         <v>303</v>
       </c>
       <c r="E95" s="37"/>
-      <c r="F95" s="184">
+      <c r="F95" s="180">
         <v>1</v>
       </c>
       <c r="G95" s="33" t="s">
@@ -9153,7 +9151,7 @@
       <c r="P95" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="Q95" s="209" t="s">
+      <c r="Q95" s="199" t="s">
         <v>297</v>
       </c>
       <c r="R95" s="33"/>
@@ -9162,7 +9160,7 @@
       <c r="U95" s="33"/>
       <c r="V95" s="33"/>
     </row>
-    <row r="96" spans="1:22" s="78" customFormat="1" ht="36.75" hidden="1" customHeight="1">
+    <row r="96" spans="1:22" s="78" customFormat="1" ht="36.75" customHeight="1">
       <c r="A96" s="89">
         <v>95</v>
       </c>
@@ -9176,7 +9174,7 @@
         <v>413</v>
       </c>
       <c r="E96" s="80"/>
-      <c r="F96" s="184">
+      <c r="F96" s="180">
         <v>1</v>
       </c>
       <c r="G96" s="91" t="s">
@@ -9206,7 +9204,7 @@
       <c r="U96" s="79"/>
       <c r="V96" s="84"/>
     </row>
-    <row r="97" spans="1:22" s="78" customFormat="1" ht="60" hidden="1">
+    <row r="97" spans="1:22" s="78" customFormat="1" ht="60">
       <c r="A97" s="89">
         <v>96</v>
       </c>
@@ -9220,7 +9218,7 @@
         <v>411</v>
       </c>
       <c r="E97" s="80"/>
-      <c r="F97" s="184">
+      <c r="F97" s="180">
         <v>1</v>
       </c>
       <c r="G97" s="79" t="s">
@@ -9248,7 +9246,7 @@
       <c r="U97" s="79"/>
       <c r="V97" s="84"/>
     </row>
-    <row r="98" spans="1:22" s="78" customFormat="1" ht="45" hidden="1">
+    <row r="98" spans="1:22" s="78" customFormat="1" ht="45">
       <c r="A98" s="89">
         <v>97</v>
       </c>
@@ -9262,7 +9260,7 @@
         <v>414</v>
       </c>
       <c r="E98" s="80"/>
-      <c r="F98" s="184">
+      <c r="F98" s="180">
         <v>1</v>
       </c>
       <c r="G98" s="79" t="s">
@@ -9290,7 +9288,7 @@
       <c r="U98" s="79"/>
       <c r="V98" s="84"/>
     </row>
-    <row r="99" spans="1:22" s="109" customFormat="1" ht="45">
+    <row r="99" spans="1:22" s="109" customFormat="1" ht="45" hidden="1">
       <c r="A99" s="110">
         <v>98</v>
       </c>
@@ -9302,7 +9300,7 @@
       </c>
       <c r="D99" s="84"/>
       <c r="E99" s="83"/>
-      <c r="F99" s="194">
+      <c r="F99" s="190">
         <v>0.5</v>
       </c>
       <c r="G99" s="119" t="s">
@@ -9331,7 +9329,7 @@
       <c r="U99" s="91"/>
       <c r="V99" s="91"/>
     </row>
-    <row r="100" spans="1:22" s="109" customFormat="1" ht="30">
+    <row r="100" spans="1:22" s="109" customFormat="1" ht="30" hidden="1">
       <c r="A100" s="110">
         <v>99</v>
       </c>
@@ -9345,7 +9343,7 @@
         <v>331</v>
       </c>
       <c r="E100" s="83"/>
-      <c r="F100" s="194">
+      <c r="F100" s="190">
         <v>1</v>
       </c>
       <c r="G100" s="119" t="s">
@@ -9368,7 +9366,7 @@
       <c r="P100" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="Q100" s="210" t="s">
+      <c r="Q100" s="200" t="s">
         <v>297</v>
       </c>
       <c r="R100" s="91"/>
@@ -9377,7 +9375,7 @@
       <c r="U100" s="91"/>
       <c r="V100" s="91"/>
     </row>
-    <row r="101" spans="1:22" s="109" customFormat="1">
+    <row r="101" spans="1:22" s="109" customFormat="1" hidden="1">
       <c r="A101" s="110">
         <v>100</v>
       </c>
@@ -9389,7 +9387,7 @@
       </c>
       <c r="D101" s="84"/>
       <c r="E101" s="83"/>
-      <c r="F101" s="184">
+      <c r="F101" s="180">
         <v>1</v>
       </c>
       <c r="G101" s="91" t="s">
@@ -9418,7 +9416,7 @@
       <c r="U101" s="91"/>
       <c r="V101" s="91"/>
     </row>
-    <row r="102" spans="1:22" s="109" customFormat="1" ht="45">
+    <row r="102" spans="1:22" s="109" customFormat="1" ht="45" hidden="1">
       <c r="A102" s="110">
         <v>101</v>
       </c>
@@ -9430,7 +9428,7 @@
       </c>
       <c r="D102" s="84"/>
       <c r="E102" s="83"/>
-      <c r="F102" s="194">
+      <c r="F102" s="190">
         <v>0.4</v>
       </c>
       <c r="G102" s="119" t="s">
@@ -9459,7 +9457,7 @@
       <c r="U102" s="91"/>
       <c r="V102" s="91"/>
     </row>
-    <row r="103" spans="1:22" ht="30">
+    <row r="103" spans="1:22" ht="30" hidden="1">
       <c r="A103" s="120">
         <v>102</v>
       </c>
@@ -9471,7 +9469,7 @@
       </c>
       <c r="D103" s="33"/>
       <c r="E103" s="37"/>
-      <c r="F103" s="190">
+      <c r="F103" s="186">
         <v>1</v>
       </c>
       <c r="G103" s="119" t="s">
@@ -9494,7 +9492,7 @@
       <c r="P103" s="122" t="s">
         <v>300</v>
       </c>
-      <c r="Q103" s="211" t="s">
+      <c r="Q103" s="201" t="s">
         <v>297</v>
       </c>
       <c r="R103" s="33"/>
@@ -9503,7 +9501,7 @@
       <c r="U103" s="33"/>
       <c r="V103" s="33"/>
     </row>
-    <row r="104" spans="1:22" ht="30">
+    <row r="104" spans="1:22" ht="30" hidden="1">
       <c r="A104" s="120">
         <v>103</v>
       </c>
@@ -9515,7 +9513,7 @@
       </c>
       <c r="D104" s="33"/>
       <c r="E104" s="37"/>
-      <c r="F104" s="190">
+      <c r="F104" s="186">
         <v>1</v>
       </c>
       <c r="G104" s="119" t="s">
@@ -9544,7 +9542,7 @@
       <c r="U104" s="33"/>
       <c r="V104" s="33"/>
     </row>
-    <row r="105" spans="1:22" ht="30">
+    <row r="105" spans="1:22" ht="30" hidden="1">
       <c r="A105" s="120">
         <v>104</v>
       </c>
@@ -9556,7 +9554,7 @@
       </c>
       <c r="D105" s="33"/>
       <c r="E105" s="37"/>
-      <c r="F105" s="190">
+      <c r="F105" s="186">
         <v>1</v>
       </c>
       <c r="G105" s="119" t="s">
@@ -9585,7 +9583,7 @@
       <c r="U105" s="33"/>
       <c r="V105" s="33"/>
     </row>
-    <row r="106" spans="1:22" s="109" customFormat="1" ht="60">
+    <row r="106" spans="1:22" s="109" customFormat="1" ht="60" hidden="1">
       <c r="A106" s="131">
         <v>105</v>
       </c>
@@ -9597,7 +9595,7 @@
       </c>
       <c r="D106" s="119"/>
       <c r="E106" s="83"/>
-      <c r="F106" s="192"/>
+      <c r="F106" s="188"/>
       <c r="G106" s="119" t="s">
         <v>416</v>
       </c>
@@ -9625,7 +9623,7 @@
       <c r="U106" s="91"/>
       <c r="V106" s="91"/>
     </row>
-    <row r="107" spans="1:22" s="109" customFormat="1" ht="409.5">
+    <row r="107" spans="1:22" s="109" customFormat="1" ht="409.5" hidden="1">
       <c r="A107" s="131">
         <v>106</v>
       </c>
@@ -9669,7 +9667,7 @@
       <c r="U107" s="91"/>
       <c r="V107" s="91"/>
     </row>
-    <row r="108" spans="1:22" s="109" customFormat="1" ht="165">
+    <row r="108" spans="1:22" s="109" customFormat="1" ht="165" hidden="1">
       <c r="A108" s="131">
         <v>107</v>
       </c>
@@ -9683,7 +9681,7 @@
         <v>400</v>
       </c>
       <c r="E108" s="83"/>
-      <c r="F108" s="194">
+      <c r="F108" s="190">
         <v>0.65</v>
       </c>
       <c r="G108" s="119" t="s">
@@ -9713,7 +9711,7 @@
       <c r="U108" s="91"/>
       <c r="V108" s="91"/>
     </row>
-    <row r="109" spans="1:22" ht="30">
+    <row r="109" spans="1:22" ht="30" hidden="1">
       <c r="A109" s="139">
         <v>108</v>
       </c>
@@ -9754,7 +9752,7 @@
       <c r="U109" s="33"/>
       <c r="V109" s="33"/>
     </row>
-    <row r="110" spans="1:22" s="109" customFormat="1">
+    <row r="110" spans="1:22" s="109" customFormat="1" hidden="1">
       <c r="A110" s="134">
         <v>109</v>
       </c>
@@ -9795,7 +9793,7 @@
       <c r="U110" s="91"/>
       <c r="V110" s="91"/>
     </row>
-    <row r="111" spans="1:22" s="109" customFormat="1" ht="30">
+    <row r="111" spans="1:22" s="109" customFormat="1" ht="30" hidden="1">
       <c r="A111" s="134">
         <v>110</v>
       </c>
@@ -9830,7 +9828,7 @@
       <c r="P111" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="Q111" s="212" t="s">
+      <c r="Q111" s="202" t="s">
         <v>297</v>
       </c>
       <c r="R111" s="91"/>
@@ -9851,7 +9849,7 @@
         <v>352</v>
       </c>
       <c r="E112" s="37"/>
-      <c r="F112" s="190">
+      <c r="F112" s="186">
         <v>1</v>
       </c>
       <c r="G112" s="141" t="s">
@@ -9884,7 +9882,7 @@
       </c>
       <c r="D113" s="130"/>
       <c r="E113" s="83"/>
-      <c r="F113" s="184">
+      <c r="F113" s="180">
         <v>1</v>
       </c>
       <c r="G113" s="79" t="s">
@@ -9913,40 +9911,40 @@
       <c r="V113" s="91"/>
     </row>
     <row r="114" spans="1:33" s="85" customFormat="1" hidden="1">
-      <c r="A114" s="176">
+      <c r="A114" s="172">
         <v>113</v>
       </c>
-      <c r="B114" s="175" t="s">
+      <c r="B114" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="C114" s="197" t="s">
+      <c r="C114" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="178" t="s">
+      <c r="D114" s="174" t="s">
         <v>417</v>
       </c>
-      <c r="E114" s="176"/>
-      <c r="F114" s="196">
-        <v>1</v>
-      </c>
-      <c r="G114" s="175" t="s">
+      <c r="E114" s="172"/>
+      <c r="F114" s="192">
+        <v>1</v>
+      </c>
+      <c r="G114" s="171" t="s">
         <v>120</v>
       </c>
-      <c r="H114" s="175"/>
-      <c r="I114" s="177" t="s">
+      <c r="H114" s="171"/>
+      <c r="I114" s="173" t="s">
         <v>236</v>
       </c>
-      <c r="J114" s="178"/>
-      <c r="K114" s="179" t="s">
+      <c r="J114" s="174"/>
+      <c r="K114" s="175" t="s">
         <v>284</v>
       </c>
-      <c r="L114" s="175" t="s">
+      <c r="L114" s="171" t="s">
         <v>281</v>
       </c>
-      <c r="M114" s="175"/>
-      <c r="N114" s="175"/>
-      <c r="O114" s="175"/>
-      <c r="P114" s="175"/>
+      <c r="M114" s="171"/>
+      <c r="N114" s="171"/>
+      <c r="O114" s="171"/>
+      <c r="P114" s="171"/>
       <c r="R114" s="35"/>
       <c r="S114" s="35"/>
       <c r="T114" s="35"/>
@@ -9956,37 +9954,37 @@
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:33">
-      <c r="A115" s="198">
+    <row r="115" spans="1:33" hidden="1">
+      <c r="A115" s="194">
         <v>114</v>
       </c>
-      <c r="B115" s="178" t="s">
+      <c r="B115" s="174" t="s">
         <v>449</v>
       </c>
-      <c r="C115" s="178" t="s">
+      <c r="C115" s="174" t="s">
         <v>450</v>
       </c>
-      <c r="D115" s="178" t="s">
+      <c r="D115" s="174" t="s">
         <v>451</v>
       </c>
-      <c r="E115" s="176"/>
-      <c r="F115" s="196">
-        <v>1</v>
-      </c>
-      <c r="G115" s="178" t="s">
+      <c r="E115" s="172"/>
+      <c r="F115" s="192">
+        <v>1</v>
+      </c>
+      <c r="G115" s="174" t="s">
         <v>452</v>
       </c>
-      <c r="H115" s="175"/>
-      <c r="I115" s="199"/>
-      <c r="J115" s="199"/>
-      <c r="K115" s="175"/>
-      <c r="L115" s="175"/>
-      <c r="M115" s="200"/>
-      <c r="N115" s="178"/>
-      <c r="O115" s="179" t="s">
+      <c r="H115" s="171"/>
+      <c r="I115" s="195"/>
+      <c r="J115" s="195"/>
+      <c r="K115" s="171"/>
+      <c r="L115" s="171"/>
+      <c r="M115" s="196"/>
+      <c r="N115" s="174"/>
+      <c r="O115" s="175" t="s">
         <v>454</v>
       </c>
-      <c r="P115" s="178" t="s">
+      <c r="P115" s="174" t="s">
         <v>453</v>
       </c>
       <c r="R115" s="33"/>
@@ -9996,69 +9994,69 @@
       <c r="V115" s="33"/>
     </row>
     <row r="116" spans="1:33" ht="45" hidden="1">
-      <c r="A116" s="198">
+      <c r="A116" s="194">
         <v>115</v>
       </c>
-      <c r="B116" s="178" t="s">
+      <c r="B116" s="174" t="s">
         <v>449</v>
       </c>
-      <c r="C116" s="178" t="s">
+      <c r="C116" s="174" t="s">
         <v>456</v>
       </c>
-      <c r="D116" s="175"/>
-      <c r="E116" s="176"/>
-      <c r="F116" s="196">
-        <v>1</v>
-      </c>
-      <c r="G116" s="178" t="s">
+      <c r="D116" s="171"/>
+      <c r="E116" s="172"/>
+      <c r="F116" s="192">
+        <v>1</v>
+      </c>
+      <c r="G116" s="174" t="s">
         <v>452</v>
       </c>
-      <c r="H116" s="175"/>
-      <c r="I116" s="199"/>
-      <c r="J116" s="199"/>
-      <c r="K116" s="175"/>
-      <c r="L116" s="175"/>
-      <c r="M116" s="200"/>
-      <c r="N116" s="178" t="s">
+      <c r="H116" s="171"/>
+      <c r="I116" s="195"/>
+      <c r="J116" s="195"/>
+      <c r="K116" s="171"/>
+      <c r="L116" s="171"/>
+      <c r="M116" s="196"/>
+      <c r="N116" s="174" t="s">
         <v>455</v>
       </c>
-      <c r="O116" s="197"/>
-      <c r="P116" s="175"/>
+      <c r="O116" s="193"/>
+      <c r="P116" s="171"/>
       <c r="R116" s="33"/>
       <c r="S116" s="33"/>
       <c r="T116" s="33"/>
       <c r="U116" s="33"/>
       <c r="V116" s="33"/>
     </row>
-    <row r="117" spans="1:33" ht="30">
-      <c r="A117" s="198">
+    <row r="117" spans="1:33" ht="30" hidden="1">
+      <c r="A117" s="194">
         <v>116</v>
       </c>
-      <c r="B117" s="178" t="s">
+      <c r="B117" s="174" t="s">
         <v>449</v>
       </c>
-      <c r="C117" s="178" t="s">
+      <c r="C117" s="174" t="s">
         <v>460</v>
       </c>
-      <c r="D117" s="175"/>
-      <c r="E117" s="176"/>
-      <c r="F117" s="196">
-        <v>1</v>
-      </c>
-      <c r="G117" s="178" t="s">
+      <c r="D117" s="171"/>
+      <c r="E117" s="172"/>
+      <c r="F117" s="192">
+        <v>1</v>
+      </c>
+      <c r="G117" s="174" t="s">
         <v>461</v>
       </c>
-      <c r="H117" s="175"/>
-      <c r="I117" s="199"/>
-      <c r="J117" s="199"/>
-      <c r="K117" s="175"/>
-      <c r="L117" s="175"/>
-      <c r="M117" s="200"/>
-      <c r="N117" s="175"/>
-      <c r="O117" s="179" t="s">
+      <c r="H117" s="171"/>
+      <c r="I117" s="195"/>
+      <c r="J117" s="195"/>
+      <c r="K117" s="171"/>
+      <c r="L117" s="171"/>
+      <c r="M117" s="196"/>
+      <c r="N117" s="171"/>
+      <c r="O117" s="175" t="s">
         <v>458</v>
       </c>
-      <c r="P117" s="178" t="s">
+      <c r="P117" s="174" t="s">
         <v>459</v>
       </c>
       <c r="R117" s="33"/>
@@ -10069,30 +10067,23 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P117">
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
     <filterColumn colId="15">
       <filters>
-        <filter val="IAD Compliance"/>
-        <filter val="IAD法遵"/>
-        <filter val="IMD交易室"/>
-        <filter val="IMD股票基金經理人"/>
-        <filter val="IMD貨幣基金經理人"/>
-        <filter val="期權經理人"/>
+        <filter val="IAD中台"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{3FC398EA-3BF4-49DA-B088-40D4AEA9ABB6}" showPageBreaks="1" hiddenColumns="1" showRuler="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{E7053904-C56E-4165-BD98-522EEE7D5541}" topLeftCell="E1">
+      <selection activeCell="P18" sqref="P18"/>
       <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{CA260C9E-B16F-4393-AE30-9944F48F1D4B}" hiddenColumns="1" showRuler="0">
+      <selection activeCell="P35" sqref="P35"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{E16C26D2-591E-4B0F-9764-62C75ED82DFA}" scale="90" showPageBreaks="1" hiddenColumns="1">
-      <selection activeCell="U11" sqref="U11"/>
-      <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-      <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{0F1B3E5F-40B2-4D64-A272-1D769106D941}" hiddenColumns="1" showRuler="0" topLeftCell="C10">
       <selection activeCell="O27" sqref="O27"/>
@@ -10100,16 +10091,16 @@
       <pageSetup paperSize="9" orientation="landscape" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{CA260C9E-B16F-4393-AE30-9944F48F1D4B}" hiddenColumns="1" showRuler="0">
-      <selection activeCell="P35" sqref="P35"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <customSheetView guid="{E16C26D2-591E-4B0F-9764-62C75ED82DFA}" scale="90" showPageBreaks="1" hiddenColumns="1">
+      <selection activeCell="U11" sqref="U11"/>
+      <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
-      <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{E7053904-C56E-4165-BD98-522EEE7D5541}" topLeftCell="E1">
-      <selection activeCell="P18" sqref="P18"/>
+    <customSheetView guid="{3FC398EA-3BF4-49DA-B088-40D4AEA9ABB6}" showPageBreaks="1" hiddenColumns="1" showRuler="0">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
+      <headerFooter alignWithMargins="0"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -10133,8 +10124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="N14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
@@ -10200,20 +10191,20 @@
       <c r="N1" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="O1" s="215" t="s">
+      <c r="O1" s="205" t="s">
         <v>223</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="214" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="204" t="s">
         <v>474</v>
       </c>
-      <c r="U1" s="214" t="s">
+      <c r="U1" s="204" t="s">
         <v>472</v>
       </c>
-      <c r="V1" s="214" t="s">
+      <c r="V1" s="204" t="s">
         <v>473</v>
       </c>
     </row>
@@ -10241,25 +10232,25 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="172" t="s">
+      <c r="L2" s="168" t="s">
         <v>406</v>
       </c>
-      <c r="M2" s="168" t="s">
+      <c r="M2" s="164" t="s">
         <v>393</v>
       </c>
-      <c r="N2" s="163" t="s">
+      <c r="N2" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="O2" s="216" t="s">
+      <c r="O2" s="206" t="s">
         <v>395</v>
       </c>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
     </row>
     <row r="3" spans="1:22" ht="132">
       <c r="A3" s="143">
@@ -10285,25 +10276,25 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="172" t="s">
+      <c r="L3" s="168" t="s">
         <v>420</v>
       </c>
-      <c r="M3" s="168" t="s">
+      <c r="M3" s="164" t="s">
         <v>394</v>
       </c>
-      <c r="N3" s="163" t="s">
+      <c r="N3" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="O3" s="216" t="s">
+      <c r="O3" s="206" t="s">
         <v>396</v>
       </c>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" s="150" customFormat="1">
       <c r="A4" s="156">
@@ -10318,7 +10309,7 @@
       <c r="D4" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="164"/>
+      <c r="E4" s="163"/>
       <c r="F4" s="148"/>
       <c r="G4" s="147"/>
       <c r="H4" s="147"/>
@@ -10326,16 +10317,16 @@
       <c r="J4" s="149"/>
       <c r="K4" s="147"/>
       <c r="L4" s="147"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="217"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="166"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
     </row>
     <row r="5" spans="1:22" s="150" customFormat="1" ht="33">
       <c r="A5" s="156">
@@ -10358,16 +10349,16 @@
       <c r="J5" s="152"/>
       <c r="K5" s="151"/>
       <c r="L5" s="151"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="217"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="166"/>
-      <c r="R5" s="166"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="166"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="207"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
     </row>
     <row r="6" spans="1:22" s="150" customFormat="1">
       <c r="A6" s="156">
@@ -10388,16 +10379,16 @@
       <c r="J6" s="152"/>
       <c r="K6" s="151"/>
       <c r="L6" s="151"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="217"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="166"/>
-      <c r="U6" s="166"/>
-      <c r="V6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="151"/>
+      <c r="T6" s="151"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="151"/>
     </row>
     <row r="7" spans="1:22" s="150" customFormat="1" ht="33">
       <c r="A7" s="156">
@@ -10420,16 +10411,16 @@
       <c r="J7" s="152"/>
       <c r="K7" s="151"/>
       <c r="L7" s="151"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="217"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
-      <c r="T7" s="166"/>
-      <c r="U7" s="166"/>
-      <c r="V7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="151"/>
     </row>
     <row r="8" spans="1:22" s="150" customFormat="1">
       <c r="A8" s="156">
@@ -10450,16 +10441,16 @@
       <c r="J8" s="152"/>
       <c r="K8" s="151"/>
       <c r="L8" s="151"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="217"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="166"/>
-      <c r="T8" s="166"/>
-      <c r="U8" s="166"/>
-      <c r="V8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="207"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="151"/>
+      <c r="T8" s="151"/>
+      <c r="U8" s="151"/>
+      <c r="V8" s="151"/>
     </row>
     <row r="9" spans="1:22" s="150" customFormat="1" ht="99">
       <c r="A9" s="156">
@@ -10482,16 +10473,16 @@
       <c r="J9" s="152"/>
       <c r="K9" s="151"/>
       <c r="L9" s="151"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="217"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="207"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="151"/>
     </row>
     <row r="10" spans="1:22" s="150" customFormat="1">
       <c r="A10" s="156">
@@ -10512,16 +10503,16 @@
       <c r="J10" s="152"/>
       <c r="K10" s="151"/>
       <c r="L10" s="151"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="217"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="166"/>
-      <c r="T10" s="166"/>
-      <c r="U10" s="166"/>
-      <c r="V10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="207"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="151"/>
+      <c r="T10" s="151"/>
+      <c r="U10" s="151"/>
+      <c r="V10" s="151"/>
     </row>
     <row r="11" spans="1:22" s="150" customFormat="1">
       <c r="A11" s="156">
@@ -10544,16 +10535,16 @@
       <c r="J11" s="152"/>
       <c r="K11" s="151"/>
       <c r="L11" s="151"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="217"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="166"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="166"/>
-      <c r="T11" s="166"/>
-      <c r="U11" s="166"/>
-      <c r="V11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="207"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="151"/>
+      <c r="U11" s="151"/>
+      <c r="V11" s="151"/>
     </row>
     <row r="12" spans="1:22" s="150" customFormat="1" ht="156" customHeight="1">
       <c r="A12" s="156">
@@ -10576,16 +10567,16 @@
       <c r="J12" s="152"/>
       <c r="K12" s="151"/>
       <c r="L12" s="151"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="217"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="166"/>
-      <c r="T12" s="166"/>
-      <c r="U12" s="166"/>
-      <c r="V12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
     </row>
     <row r="13" spans="1:22" s="150" customFormat="1">
       <c r="A13" s="156">
@@ -10598,24 +10589,24 @@
         <v>388</v>
       </c>
       <c r="D13" s="151"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="217"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="166"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="207"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="151"/>
     </row>
     <row r="14" spans="1:22" s="150" customFormat="1">
       <c r="A14" s="156">
@@ -10638,16 +10629,16 @@
       <c r="J14" s="152"/>
       <c r="K14" s="151"/>
       <c r="L14" s="151"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="217"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="166"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
-      <c r="V14" s="166"/>
+      <c r="M14" s="166"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="207"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
     </row>
     <row r="15" spans="1:22" s="150" customFormat="1">
       <c r="A15" s="156">
@@ -10666,16 +10657,16 @@
       <c r="J15" s="152"/>
       <c r="K15" s="151"/>
       <c r="L15" s="151"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="217"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="166"/>
-      <c r="T15" s="166"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="207"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="151"/>
+      <c r="V15" s="151"/>
     </row>
     <row r="16" spans="1:22" s="150" customFormat="1">
       <c r="A16" s="156">
@@ -10696,16 +10687,16 @@
       <c r="J16" s="152"/>
       <c r="K16" s="151"/>
       <c r="L16" s="151"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="217"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="166"/>
-      <c r="T16" s="166"/>
-      <c r="U16" s="166"/>
-      <c r="V16" s="166"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="207"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="151"/>
+      <c r="T16" s="151"/>
+      <c r="U16" s="151"/>
+      <c r="V16" s="151"/>
     </row>
     <row r="17" spans="1:33" ht="247.5">
       <c r="A17" s="143">
@@ -10719,7 +10710,7 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="183">
+      <c r="F17" s="179">
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
@@ -10730,58 +10721,58 @@
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="171" t="s">
+      <c r="M17" s="167" t="s">
         <v>394</v>
       </c>
-      <c r="N17" s="163" t="s">
+      <c r="N17" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="O17" s="216" t="s">
+      <c r="O17" s="206" t="s">
         <v>398</v>
       </c>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="163"/>
-      <c r="T17" s="163"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="163"/>
-    </row>
-    <row r="18" spans="1:33" s="180" customFormat="1" ht="15">
-      <c r="A18" s="174">
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+    </row>
+    <row r="18" spans="1:33" s="176" customFormat="1" ht="15">
+      <c r="A18" s="170">
         <v>17</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="182" t="s">
+      <c r="C18" s="178" t="s">
         <v>418</v>
       </c>
-      <c r="D18" s="178" t="s">
+      <c r="D18" s="174" t="s">
         <v>417</v>
       </c>
-      <c r="E18" s="176"/>
-      <c r="F18" s="190">
-        <v>1</v>
-      </c>
-      <c r="G18" s="178" t="s">
+      <c r="E18" s="172"/>
+      <c r="F18" s="186">
+        <v>1</v>
+      </c>
+      <c r="G18" s="174" t="s">
         <v>415</v>
       </c>
-      <c r="H18" s="175"/>
-      <c r="I18" s="177" t="s">
+      <c r="H18" s="171"/>
+      <c r="I18" s="173" t="s">
         <v>236</v>
       </c>
-      <c r="J18" s="178"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="175"/>
-      <c r="P18" s="175"/>
-      <c r="Q18" s="175"/>
-      <c r="R18" s="175"/>
-      <c r="S18" s="175"/>
-      <c r="T18" s="175"/>
-      <c r="U18" s="175"/>
-      <c r="V18" s="175"/>
-      <c r="AG18" s="181" t="s">
+      <c r="J18" s="174"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="171"/>
+      <c r="P18" s="171"/>
+      <c r="Q18" s="171"/>
+      <c r="R18" s="171"/>
+      <c r="S18" s="171"/>
+      <c r="T18" s="171"/>
+      <c r="U18" s="171"/>
+      <c r="V18" s="171"/>
+      <c r="AG18" s="177" t="s">
         <v>228</v>
       </c>
     </row>
@@ -10821,46 +10812,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A1" s="173"/>
-      <c r="B1" s="193" t="s">
+      <c r="A1" s="169"/>
+      <c r="B1" s="189" t="s">
         <v>447</v>
       </c>
-      <c r="C1" s="193" t="s">
+      <c r="C1" s="189" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="173" t="s">
+      <c r="D1" s="169" t="s">
         <v>443</v>
       </c>
-      <c r="E1" s="173" t="s">
+      <c r="E1" s="169" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="193" t="s">
+      <c r="F1" s="189" t="s">
         <v>445</v>
       </c>
-      <c r="G1" s="173" t="s">
+      <c r="G1" s="169" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="173" t="s">
+      <c r="H1" s="169" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="173" t="s">
+      <c r="I1" s="169" t="s">
         <v>196</v>
       </c>
-      <c r="J1" s="173" t="s">
+      <c r="J1" s="169" t="s">
         <v>197</v>
       </c>
-      <c r="K1" s="173" t="s">
+      <c r="K1" s="169" t="s">
         <v>219</v>
       </c>
-      <c r="L1" s="173" t="s">
+      <c r="L1" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="173" t="s">
+      <c r="M1" s="169" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="169" t="s">
         <v>200</v>
       </c>
       <c r="B2" s="97" t="s">
@@ -10869,7 +10860,7 @@
       <c r="C2" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="188" t="s">
+      <c r="D2" s="184" t="s">
         <v>446</v>
       </c>
       <c r="E2" s="32" t="s">
@@ -10893,60 +10884,60 @@
       <c r="K2" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="L2" s="188" t="s">
+      <c r="L2" s="184" t="s">
         <v>431</v>
       </c>
-      <c r="M2" s="188" t="s">
+      <c r="M2" s="184" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="169" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
       <c r="I3" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="205" t="s">
+      <c r="J3" s="213" t="s">
         <v>216</v>
       </c>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
       <c r="M3" s="32" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="169" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="213" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205" t="s">
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="213" t="s">
         <v>220</v>
       </c>
-      <c r="J4" s="205"/>
+      <c r="J4" s="213"/>
       <c r="K4" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="L4" s="206"/>
-      <c r="M4" s="207"/>
+      <c r="L4" s="214"/>
+      <c r="M4" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="5">
